--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A25EE-AA50-47FE-8F4B-FAD7843E6DF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF2DEB-0B25-4DA4-B063-7ABAB8F469ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="336">
   <si>
     <t>Container 1</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t>Container 3</t>
+  </si>
+  <si>
+    <t>kein Inhalt</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1398,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1437,6 +1440,9 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF2DEB-0B25-4DA4-B063-7ABAB8F469ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F18A32-42A8-43D3-9ABD-FB325C16AAF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
-    <sheet name="flight_dev_tab_cols_cont1" sheetId="4" r:id="rId2"/>
-    <sheet name="flight_dev_db_cont1" sheetId="2" r:id="rId3"/>
-    <sheet name="flight_dev_cont_cont1" sheetId="3" r:id="rId4"/>
+    <sheet name="Abfragen" sheetId="5" r:id="rId2"/>
+    <sheet name="flight_dev_tab_cols_cont1" sheetId="4" r:id="rId3"/>
+    <sheet name="flight_dev_db_cont1" sheetId="2" r:id="rId4"/>
+    <sheet name="flight_dev_cont_cont1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="342">
   <si>
     <t>Container 1</t>
   </si>
@@ -1042,6 +1043,24 @@
   </si>
   <si>
     <t>kein Inhalt</t>
+  </si>
+  <si>
+    <t>select * from user_tab_cols;</t>
+  </si>
+  <si>
+    <t>select 'select count(*), ' || chr(39) ||  table_name || chr(39) || ' from ' || table_name || ' union ' from user_tables;</t>
+  </si>
+  <si>
+    <t>select count(*) from user_tables</t>
+  </si>
+  <si>
+    <t>Container 4</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>FLIGHT_DEV</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1444,6 +1463,60 @@
       <c r="B3" t="s">
         <v>335</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1451,6 +1524,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26071D35-B061-4AEB-8619-41892F2D4B69}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001BF18-D0E7-471B-B6A6-05E3E35118BE}">
   <dimension ref="A1:AI298"/>
   <sheetViews>
@@ -23592,7 +23695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11472DB7-0777-44A5-9D36-F5779B17FBAF}">
   <dimension ref="A1:A46"/>
   <sheetViews>
@@ -23837,7 +23940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D32FEDC-7C4D-4972-89BA-9BBE05BAFF53}">
   <dimension ref="A1:B45"/>
   <sheetViews>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC8F1D1-EC94-4F87-AB33-C03C93540747}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C7436-A4F5-4023-B094-0BEB7DF071DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9537" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9545" uniqueCount="501">
   <si>
     <t>Container 1</t>
   </si>
@@ -1532,6 +1532,15 @@
   </si>
   <si>
     <t>Inhalte gesichert (cont)</t>
+  </si>
+  <si>
+    <t>Container 5</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>keine Inhalte</t>
   </si>
 </sst>
 </file>
@@ -1893,15 +1902,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H7" sqref="H7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1909,31 +1918,34 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>493</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>495</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>496</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>497</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1941,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1522</v>
+      </c>
+      <c r="D2">
         <v>45</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>492</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>492</v>
@@ -1962,10 +1974,13 @@
         <v>492</v>
       </c>
       <c r="K2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>334</v>
       </c>
@@ -1973,7 +1988,7 @@
         <v>335</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1981,8 +1996,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>491</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>491</v>
@@ -1996,8 +2011,11 @@
       <c r="K3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>339</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>340</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2013,8 +2031,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>491</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>491</v>
@@ -2028,8 +2046,11 @@
       <c r="K4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>339</v>
       </c>
@@ -2037,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2045,8 +2066,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>491</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>491</v>
@@ -2060,8 +2081,11 @@
       <c r="K5" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>339</v>
       </c>
@@ -2069,19 +2093,19 @@
         <v>341</v>
       </c>
       <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>490</v>
-      </c>
-      <c r="G6" t="s">
-        <v>492</v>
       </c>
       <c r="H6" t="s">
         <v>492</v>
@@ -2092,7 +2116,45 @@
       <c r="J6" t="s">
         <v>492</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
+        <v>492</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>1526</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>491</v>
+      </c>
+      <c r="I7" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L7" t="s">
         <v>491</v>
       </c>
     </row>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C7436-A4F5-4023-B094-0BEB7DF071DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9CD69-7627-4703-9046-B2510B4CAD9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9545" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9556" uniqueCount="502">
   <si>
     <t>Container 1</t>
   </si>
@@ -1541,6 +1541,9 @@
   </si>
   <si>
     <t>keine Inhalte</t>
+  </si>
+  <si>
+    <t>Container 6</t>
   </si>
 </sst>
 </file>
@@ -1563,12 +1566,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1583,11 +1598,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1902,46 +1919,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:L7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>494</v>
       </c>
     </row>
@@ -2086,7 +2103,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>339</v>
       </c>
       <c r="B6" t="s">
@@ -2155,6 +2172,69 @@
         <v>491</v>
       </c>
       <c r="L7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8">
+        <v>1526</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9">
+        <v>1526</v>
+      </c>
+      <c r="D9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1526</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>491</v>
+      </c>
+      <c r="I10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" t="s">
+        <v>491</v>
+      </c>
+      <c r="K10" t="s">
+        <v>491</v>
+      </c>
+      <c r="L10" t="s">
         <v>491</v>
       </c>
     </row>
@@ -2169,7 +2249,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9CD69-7627-4703-9046-B2510B4CAD9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9386E4-68FA-4100-BC27-4CD54C8F32BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Abfragen" sheetId="5" r:id="rId2"/>
-    <sheet name="flight_dev_cont_cont4" sheetId="7" r:id="rId3"/>
-    <sheet name="flight_dev_tab_cols_cont4" sheetId="6" r:id="rId4"/>
-    <sheet name="flight_dev_db_cont4" sheetId="8" r:id="rId5"/>
-    <sheet name="flight_dev_tab_cols_cont1" sheetId="4" r:id="rId6"/>
-    <sheet name="flight_dev_db_cont1" sheetId="2" r:id="rId7"/>
-    <sheet name="flight_dev_cont_cont1" sheetId="3" r:id="rId8"/>
+    <sheet name="flight_dev_cont_cont6" sheetId="9" r:id="rId3"/>
+    <sheet name="flight_dev_cont_cont4" sheetId="7" r:id="rId4"/>
+    <sheet name="flight_dev_tab_cols_cont4" sheetId="6" r:id="rId5"/>
+    <sheet name="flight_dev_db_cont4" sheetId="8" r:id="rId6"/>
+    <sheet name="flight_dev_tab_cols_cont1" sheetId="4" r:id="rId7"/>
+    <sheet name="flight_dev_db_cont1" sheetId="2" r:id="rId8"/>
+    <sheet name="flight_dev_cont_cont1" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9556" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9625" uniqueCount="502">
   <si>
     <t>Container 1</t>
   </si>
@@ -1550,7 +1551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,8 +1566,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1592,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1598,13 +1611,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1922,10 +1937,14 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
@@ -1972,7 +1991,7 @@
       <c r="C2">
         <v>1522</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>45</v>
       </c>
       <c r="E2">
@@ -2112,7 +2131,7 @@
       <c r="C6">
         <v>125</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>60</v>
       </c>
       <c r="E6">
@@ -2185,8 +2204,26 @@
       <c r="C8">
         <v>1526</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>59</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H8" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" t="s">
+        <v>492</v>
+      </c>
+      <c r="K8" t="s">
+        <v>492</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -2199,7 +2236,7 @@
       <c r="C9">
         <v>1526</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>193</v>
       </c>
     </row>
@@ -2276,6 +2313,341 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405761B1-26CF-46B2-9BF3-6550AB087232}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F81CF0-3616-4CB2-8AC2-305E43765A17}">
   <dimension ref="A1:B60"/>
   <sheetViews>
@@ -2770,7 +3142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F67AEE-765D-4B82-B4B2-3B774C56C5EE}">
   <dimension ref="A1:AI437"/>
   <sheetViews>
@@ -26894,12 +27266,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31369175-02C1-41BA-B075-E51FB26F0D43}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A65"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27234,7 +27606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001BF18-D0E7-471B-B6A6-05E3E35118BE}">
   <dimension ref="A1:AI298"/>
   <sheetViews>
@@ -49376,7 +49748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11472DB7-0777-44A5-9D36-F5779B17FBAF}">
   <dimension ref="A1:A46"/>
   <sheetViews>
@@ -49621,7 +49993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D32FEDC-7C4D-4972-89BA-9BBE05BAFF53}">
   <dimension ref="A1:B45"/>
   <sheetViews>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9386E4-68FA-4100-BC27-4CD54C8F32BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47EC953-7926-4D95-9A26-6B8A6A484E37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\29_Allgemein\ContainerÜbersicht\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47EC953-7926-4D95-9A26-6B8A6A484E37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12787BF2-BDBF-4461-BC2D-FB72010180F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9625" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9633" uniqueCount="505">
   <si>
     <t>Container 1</t>
   </si>
@@ -1546,6 +1546,15 @@
   <si>
     <t>Container 6</t>
   </si>
+  <si>
+    <t>lokal</t>
+  </si>
+  <si>
+    <t>pizzeria</t>
+  </si>
+  <si>
+    <t>stammbaum</t>
+  </si>
 </sst>
 </file>
 
@@ -1934,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D93" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:Q123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2273,6 +2282,53 @@
       </c>
       <c r="L10" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1521</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C13">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B9025-CA66-4AE6-A34C-4FDE4D60A396}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DF1A9-7341-4746-8C81-95794FD1D6D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Container 1</t>
   </si>
@@ -218,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -226,18 +226,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -555,7 +696,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -565,681 +706,725 @@
     <col min="10" max="10" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1522</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1524</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>1525</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>1525</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="16">
         <v>1525</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="17">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="16">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="H6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1526</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>1526</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="21">
         <v>59</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>1526</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="24">
         <v>193</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="16">
         <v>1526</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>1528</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="21">
         <v>87</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>32</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>1528</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="24">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="H12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="16">
         <v>1528</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="17">
         <v>60</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="16">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="8">
         <v>1521</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>224</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>32</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="12">
         <v>1521</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <v>1521</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>17</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="s">
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <v>1521</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>51</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="12">
         <v>1521</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="12">
         <v>1521</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="12">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="H20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="16">
         <v>1521</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="16">
         <v>52</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="16">
         <v>5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="16">
         <v>10</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>16</v>
       </c>
     </row>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DF1A9-7341-4746-8C81-95794FD1D6D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B3482-7F18-4630-96DF-77153007E853}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="43">
   <si>
     <t>Container 1</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Kandidaten-Firmenzuordnung</t>
+  </si>
+  <si>
+    <t>select owner, object_type, count(*) from dba_objects group by owner, object_type</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -379,6 +382,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -695,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1436,43 +1442,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26071D35-B061-4AEB-8619-41892F2D4B69}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3B3482-7F18-4630-96DF-77153007E853}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF5001-6C45-4F82-BE47-7CFB21BFA4E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>Container 1</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>select owner, object_type, count(*) from dba_objects group by owner, object_type</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>f37c73180c5b</t>
+  </si>
+  <si>
+    <t>db7abeb88254</t>
+  </si>
+  <si>
+    <t>df5dfd5e433b5</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -385,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -699,20 +712,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
@@ -723,32 +737,35 @@
         <v>23</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,33 +775,34 @@
       <c r="C2" s="3">
         <v>1522</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
         <v>45</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -794,33 +812,34 @@
       <c r="C3" s="3">
         <v>1524</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -830,33 +849,34 @@
       <c r="C4" s="8">
         <v>1525</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -866,33 +886,34 @@
       <c r="C5" s="12">
         <v>1525</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -902,71 +923,73 @@
       <c r="C6" s="16">
         <v>1525</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17">
         <v>60</v>
       </c>
-      <c r="E6" s="16">
+      <c r="F6" s="16">
         <v>5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>1526</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
@@ -976,35 +999,38 @@
       <c r="C8" s="8">
         <v>1526</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="21">
         <v>59</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
@@ -1014,25 +1040,34 @@
       <c r="C9" s="12">
         <v>1526</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="24">
         <v>193</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
@@ -1042,8 +1077,8 @@
       <c r="C10" s="16">
         <v>1526</v>
       </c>
-      <c r="D10" s="16">
-        <v>0</v>
+      <c r="D10" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -1051,50 +1086,56 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
+      <c r="K10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="12">
         <v>1528</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="24">
         <v>87</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="12">
         <v>32</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
         <v>30</v>
       </c>
@@ -1104,31 +1145,34 @@
       <c r="C12" s="12">
         <v>1528</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
       <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K12" s="12"/>
+      <c r="L12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
@@ -1138,45 +1182,51 @@
       <c r="C13" s="16">
         <v>1528</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="17">
         <v>60</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>5</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="16"/>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="J13" s="16"/>
-      <c r="K13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K13" s="16"/>
+      <c r="L13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K14" s="3"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -1186,35 +1236,36 @@
       <c r="C15" s="8">
         <v>1521</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>224</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>32</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>4</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1224,33 +1275,34 @@
       <c r="C16" s="12">
         <v>1521</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>15</v>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
@@ -1260,33 +1312,34 @@
       <c r="C17" s="12">
         <v>1521</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>17</v>
       </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
       <c r="F17" s="12">
         <v>0</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1296,35 +1349,36 @@
       <c r="C18" s="12">
         <v>1521</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>51</v>
       </c>
-      <c r="E18" s="12">
+      <c r="F18" s="12">
         <v>9</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
@@ -1334,33 +1388,34 @@
       <c r="C19" s="12">
         <v>1521</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <v>19</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>4</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -1370,35 +1425,36 @@
       <c r="C20" s="12">
         <v>1521</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>18</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
       <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>3</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="27" t="s">
         <v>26</v>
       </c>
@@ -1408,29 +1464,30 @@
       <c r="C21" s="16">
         <v>1521</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16">
         <v>52</v>
       </c>
-      <c r="E21" s="16">
+      <c r="F21" s="16">
         <v>5</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="16">
         <v>10</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="18" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="25" t="s">
+      <c r="K21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1444,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26071D35-B061-4AEB-8619-41892F2D4B69}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF5001-6C45-4F82-BE47-7CFB21BFA4E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CC1C8-DAC9-4596-9258-7A3660441CE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
   <si>
     <t>Container 1</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1046,7 +1046,9 @@
       <c r="E9" s="24">
         <v>193</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="32">
+        <v>32</v>
+      </c>
       <c r="G9" s="12">
         <v>0</v>
       </c>
@@ -1129,11 +1131,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="23" t="s">
@@ -1198,8 +1210,12 @@
       <c r="I13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="L13" s="18" t="s">
         <v>16</v>
       </c>
@@ -1502,7 +1518,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CC1C8-DAC9-4596-9258-7A3660441CE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA41523-7160-4FB6-81EE-1CB110C73140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="48">
   <si>
     <t>Container 1</t>
   </si>
@@ -172,7 +172,10 @@
     <t>db7abeb88254</t>
   </si>
   <si>
-    <t>df5dfd5e433b5</t>
+    <t>927c8f73daf1</t>
+  </si>
+  <si>
+    <t>FlIGHT_DEV</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1175,8 +1178,12 @@
       <c r="I12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="L12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1234,12 @@
       <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1529</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
       </c>

--- a/20190519/ContainerÜbersicht.xlsx
+++ b/20190519/ContainerÜbersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\05_Container_Save\20190519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA41523-7160-4FB6-81EE-1CB110C73140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B22C18-1E75-4A0D-9EDC-78CEBF35680E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{757A9DF4-9F7F-4424-8A7A-5BE8990AB119}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086F91AC-8863-4AED-BC62-45CA79CA0C4C}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26071D35-B061-4AEB-8619-41892F2D4B69}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
